--- a/tables/crosstab/crosstab_gender/crosstab_app_gender/Gender VS revealed,.xlsx
+++ b/tables/crosstab/crosstab_gender/crosstab_app_gender/Gender VS revealed,.xlsx
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>63</v>
@@ -453,19 +453,19 @@
         <v>87</v>
       </c>
       <c r="E2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2">
-        <v>30.12</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>15.56</v>
+        <v>15.75</v>
       </c>
       <c r="H2">
-        <v>21.48</v>
+        <v>21.75</v>
       </c>
       <c r="I2">
-        <v>67.16</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -473,28 +473,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>32</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>13.09</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>11.85</v>
+        <v>11.5</v>
       </c>
       <c r="I3">
-        <v>32.84</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -502,25 +502,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>95</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>43.21</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>23.46</v>
+        <v>23.75</v>
       </c>
       <c r="H4">
-        <v>33.33</v>
+        <v>33.25</v>
       </c>
       <c r="I4">
         <v>100</v>
